--- a/Documentation/Test Case/UnitTest.xlsx
+++ b/Documentation/Test Case/UnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -654,6 +654,9 @@
   <si>
     <t>LikerId:  null
 userId: null</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -726,14 +729,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,9 +1022,9 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,14 +1064,14 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1083,6 +1086,9 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1097,6 +1103,9 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1111,6 +1120,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1125,19 +1137,22 @@
       <c r="D7" s="4">
         <v>44346</v>
       </c>
+      <c r="E7" t="s">
+        <v>189</v>
+      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1152,6 +1167,9 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>189</v>
+      </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1169,19 +1187,22 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1196,6 +1217,9 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
+      <c r="E12" t="s">
+        <v>189</v>
+      </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
@@ -1213,6 +1237,9 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
+      <c r="E13" t="s">
+        <v>189</v>
+      </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -1230,6 +1257,9 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1244,6 +1274,9 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1261,6 +1294,9 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
       <c r="F16" t="s">
         <v>35</v>
       </c>
@@ -1278,6 +1314,9 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
@@ -1295,6 +1334,9 @@
       <c r="D18" t="s">
         <v>33</v>
       </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1309,6 +1351,9 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
+      <c r="E19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1323,6 +1368,9 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1337,6 +1385,9 @@
       <c r="D21" t="b">
         <v>0</v>
       </c>
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
@@ -1354,6 +1405,9 @@
       <c r="D22" t="b">
         <v>0</v>
       </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1368,6 +1422,9 @@
       <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
       <c r="F23" t="s">
         <v>51</v>
       </c>
@@ -1385,6 +1442,9 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
@@ -1402,6 +1462,9 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
+      <c r="E25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1416,6 +1479,9 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
       <c r="F26" t="s">
         <v>51</v>
       </c>
@@ -1433,6 +1499,9 @@
       <c r="D27" t="s">
         <v>33</v>
       </c>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
@@ -1450,16 +1519,19 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
+      <c r="E28" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1468,11 +1540,14 @@
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
       </c>
       <c r="F30" t="s">
         <v>67</v>
@@ -1485,11 +1560,14 @@
       <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
       </c>
       <c r="F31" t="s">
         <v>70</v>
@@ -1502,11 +1580,14 @@
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>189</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
@@ -1519,11 +1600,14 @@
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
       </c>
       <c r="F33" t="s">
         <v>70</v>
@@ -1536,11 +1620,14 @@
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1550,22 +1637,25 @@
       <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
+      <c r="E35" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1580,6 +1670,9 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1594,6 +1687,9 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
+      <c r="E38" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1608,6 +1704,9 @@
       <c r="D39" t="b">
         <v>0</v>
       </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
       <c r="F39" t="s">
         <v>87</v>
       </c>
@@ -1625,19 +1724,22 @@
       <c r="D40" t="b">
         <v>0</v>
       </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
       <c r="F40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1652,6 +1754,9 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
       <c r="F42" t="s">
         <v>95</v>
       </c>
@@ -1669,6 +1774,9 @@
       <c r="D43" t="b">
         <v>0</v>
       </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
       <c r="F43" t="s">
         <v>98</v>
       </c>
@@ -1686,6 +1794,9 @@
       <c r="D44" t="s">
         <v>102</v>
       </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
       <c r="F44" t="s">
         <v>103</v>
       </c>
@@ -1703,6 +1814,9 @@
       <c r="D45" t="s">
         <v>102</v>
       </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
       <c r="F45" t="s">
         <v>103</v>
       </c>
@@ -1720,6 +1834,9 @@
       <c r="D46" t="b">
         <v>1</v>
       </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
       <c r="F46" t="s">
         <v>109</v>
       </c>
@@ -1737,19 +1854,22 @@
       <c r="D47" t="b">
         <v>0</v>
       </c>
+      <c r="E47" t="s">
+        <v>189</v>
+      </c>
       <c r="F47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1764,16 +1884,19 @@
       <c r="D49" t="b">
         <v>1</v>
       </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1788,6 +1911,9 @@
       <c r="D51" t="s">
         <v>102</v>
       </c>
+      <c r="E51" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1802,6 +1928,9 @@
       <c r="D52" t="b">
         <v>1</v>
       </c>
+      <c r="E52" t="s">
+        <v>189</v>
+      </c>
       <c r="F52" t="s">
         <v>123</v>
       </c>
@@ -1819,6 +1948,9 @@
       <c r="D53" t="b">
         <v>0</v>
       </c>
+      <c r="E53" t="s">
+        <v>189</v>
+      </c>
       <c r="F53" t="s">
         <v>124</v>
       </c>
@@ -1836,6 +1968,9 @@
       <c r="D54" t="b">
         <v>1</v>
       </c>
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
       <c r="F54" t="s">
         <v>127</v>
       </c>
@@ -1853,6 +1988,9 @@
       <c r="D55" t="b">
         <v>0</v>
       </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
       <c r="F55" t="s">
         <v>129</v>
       </c>
@@ -1870,6 +2008,9 @@
       <c r="D56" t="b">
         <v>0</v>
       </c>
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
       <c r="F56" t="s">
         <v>129</v>
       </c>
@@ -1887,6 +2028,9 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -1904,16 +2048,19 @@
       <c r="D58" t="s">
         <v>138</v>
       </c>
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1925,16 +2072,19 @@
       <c r="D60" t="s">
         <v>142</v>
       </c>
+      <c r="E60" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1949,6 +2099,9 @@
       <c r="D62" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1963,6 +2116,9 @@
       <c r="D63" t="s">
         <v>33</v>
       </c>
+      <c r="E63" t="s">
+        <v>189</v>
+      </c>
       <c r="F63" t="s">
         <v>149</v>
       </c>
@@ -1980,6 +2136,9 @@
       <c r="D64" t="s">
         <v>33</v>
       </c>
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
       <c r="F64" t="s">
         <v>149</v>
       </c>
@@ -1997,6 +2156,9 @@
       <c r="D65" t="s">
         <v>33</v>
       </c>
+      <c r="E65" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2008,8 +2170,11 @@
       <c r="C66" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
       </c>
       <c r="F66" t="s">
         <v>157</v>
@@ -2028,6 +2193,9 @@
       <c r="D67" t="s">
         <v>33</v>
       </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
       <c r="F67" t="s">
         <v>157</v>
       </c>
@@ -2045,6 +2213,9 @@
       <c r="D68" t="s">
         <v>33</v>
       </c>
+      <c r="E68" t="s">
+        <v>189</v>
+      </c>
       <c r="F68" t="s">
         <v>157</v>
       </c>
@@ -2062,6 +2233,9 @@
       <c r="D69" t="s">
         <v>33</v>
       </c>
+      <c r="E69" t="s">
+        <v>189</v>
+      </c>
       <c r="F69" t="s">
         <v>157</v>
       </c>
@@ -2079,6 +2253,9 @@
       <c r="D70" t="s">
         <v>33</v>
       </c>
+      <c r="E70" t="s">
+        <v>189</v>
+      </c>
       <c r="F70" t="s">
         <v>157</v>
       </c>
@@ -2096,6 +2273,9 @@
       <c r="D71" t="s">
         <v>164</v>
       </c>
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
       <c r="F71" t="s">
         <v>157</v>
       </c>
@@ -2113,6 +2293,9 @@
       <c r="D72" t="s">
         <v>33</v>
       </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
       <c r="F72" t="s">
         <v>157</v>
       </c>
@@ -2130,6 +2313,9 @@
       <c r="D73" t="s">
         <v>33</v>
       </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
       <c r="F73" t="s">
         <v>157</v>
       </c>
@@ -2147,6 +2333,9 @@
       <c r="D74" t="s">
         <v>33</v>
       </c>
+      <c r="E74" t="s">
+        <v>189</v>
+      </c>
       <c r="F74" t="s">
         <v>157</v>
       </c>
@@ -2164,6 +2353,9 @@
       <c r="D75" t="s">
         <v>33</v>
       </c>
+      <c r="E75" t="s">
+        <v>189</v>
+      </c>
       <c r="F75" t="s">
         <v>157</v>
       </c>
@@ -2181,6 +2373,9 @@
       <c r="D76">
         <v>20</v>
       </c>
+      <c r="E76" t="s">
+        <v>189</v>
+      </c>
       <c r="F76" t="s">
         <v>157</v>
       </c>
@@ -2198,6 +2393,9 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77" t="s">
+        <v>189</v>
+      </c>
       <c r="F77" t="s">
         <v>157</v>
       </c>
@@ -2215,6 +2413,9 @@
       <c r="D78">
         <v>0</v>
       </c>
+      <c r="E78" t="s">
+        <v>189</v>
+      </c>
       <c r="F78" t="s">
         <v>157</v>
       </c>
@@ -2232,6 +2433,9 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79" t="s">
+        <v>189</v>
+      </c>
       <c r="F79" t="s">
         <v>157</v>
       </c>
@@ -2249,6 +2453,9 @@
       <c r="D80">
         <v>0</v>
       </c>
+      <c r="E80" t="s">
+        <v>189</v>
+      </c>
       <c r="F80" t="s">
         <v>157</v>
       </c>
@@ -2266,6 +2473,9 @@
       <c r="D81" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
       <c r="F81" t="s">
         <v>177</v>
       </c>
@@ -2283,6 +2493,9 @@
       <c r="D82" t="s">
         <v>33</v>
       </c>
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
       <c r="F82" t="s">
         <v>177</v>
       </c>
@@ -2300,6 +2513,9 @@
       <c r="D83" t="s">
         <v>33</v>
       </c>
+      <c r="E83" t="s">
+        <v>189</v>
+      </c>
       <c r="F83" t="s">
         <v>177</v>
       </c>
@@ -2317,6 +2533,9 @@
       <c r="D84" t="s">
         <v>33</v>
       </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
       <c r="F84" t="s">
         <v>177</v>
       </c>
@@ -2331,6 +2550,9 @@
       <c r="D85" t="b">
         <v>1</v>
       </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
       <c r="F85" t="s">
         <v>157</v>
       </c>
@@ -2345,6 +2567,9 @@
       <c r="D86" t="b">
         <v>0</v>
       </c>
+      <c r="E86" t="s">
+        <v>189</v>
+      </c>
       <c r="F86" t="s">
         <v>157</v>
       </c>
@@ -2359,6 +2584,9 @@
       <c r="D87" t="b">
         <v>0</v>
       </c>
+      <c r="E87" t="s">
+        <v>189</v>
+      </c>
       <c r="F87" t="s">
         <v>157</v>
       </c>
@@ -2373,6 +2601,9 @@
       <c r="D88" t="b">
         <v>0</v>
       </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
       <c r="F88" t="s">
         <v>157</v>
       </c>
@@ -2387,6 +2618,9 @@
       <c r="D89" t="b">
         <v>0</v>
       </c>
+      <c r="E89" t="s">
+        <v>189</v>
+      </c>
       <c r="F89" t="s">
         <v>157</v>
       </c>
@@ -2401,22 +2635,25 @@
       <c r="D90" t="b">
         <v>0</v>
       </c>
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
       <c r="F90" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D66" r:id="rId1"/>
